--- a/语法单位规约.xlsx
+++ b/语法单位规约.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\OneDrive\毕业设计\ArrayList_Simulate_DB_5p2_alpha_forUTF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f39c4b4d24f7506f/%e6%af%95%e4%b8%9a%e8%ae%be%e8%ae%a1/ArrayList_Simulate_DB_5p2_alpha_forUTF/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19103" windowHeight="9278"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="9276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,17 +615,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -647,7 +647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -655,27 +655,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -683,12 +683,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -699,7 +699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -707,22 +707,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -730,7 +730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -738,7 +738,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -754,12 +754,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
@@ -767,12 +767,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -780,7 +780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -788,27 +788,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -816,32 +816,32 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -849,12 +849,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -865,7 +865,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -876,7 +876,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>53</v>
       </c>
@@ -884,7 +884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -892,7 +892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -900,7 +900,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -908,12 +908,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
@@ -921,7 +921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -929,12 +929,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>75</v>
       </c>
@@ -942,17 +942,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -960,7 +960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
